--- a/Employee_Reports35/Elesor JR Cas Frondozo Q0430.xlsx
+++ b/Employee_Reports35/Elesor JR Cas Frondozo Q0430.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1059,11 +1059,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1096,11 +1096,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">

--- a/Employee_Reports35/Elesor JR Cas Frondozo Q0430.xlsx
+++ b/Employee_Reports35/Elesor JR Cas Frondozo Q0430.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1059,11 +1059,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1096,11 +1096,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
